--- a/src/main/networks/cnop/complexity.xlsx
+++ b/src/main/networks/cnop/complexity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D28DC8C-133D-4091-94B8-174DD777396F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC56F5D1-C69A-4ED9-81E4-42C2F837A0CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="cnop" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">cnop!$A$1:$Q$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">cnop!$A$1:$Q$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <r>
       <t>C</t>
@@ -216,21 +216,6 @@
     <t>PBB</t>
   </si>
   <si>
-    <t>Resid</t>
-  </si>
-  <si>
-    <t>WiFi1</t>
-  </si>
-  <si>
-    <t>WiFi2</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
     <t>2/2/2</t>
   </si>
   <si>
@@ -270,23 +255,106 @@
     <t>I/F</t>
   </si>
   <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
     <t>1/5/5</t>
   </si>
   <si>
     <t>1/4/6</t>
+  </si>
+  <si>
+    <r>
+      <t>Resid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>a) Residential, b) Together 1/2/3/4</t>
+  </si>
+  <si>
+    <r>
+      <t>Tog 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tog 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tog 3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tog 4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>WiFi 1</t>
+  </si>
+  <si>
+    <t>WiFi 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +384,20 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Garamond"/>
@@ -407,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -453,7 +535,13 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,9 +844,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>22</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -801,25 +887,25 @@
         <v>22</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
@@ -829,46 +915,46 @@
         <v>13</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="I3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="K3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
@@ -902,10 +988,10 @@
         <v>9</v>
       </c>
       <c r="K4" s="14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L4" s="14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M4" s="14">
         <v>11</v>
@@ -914,10 +1000,10 @@
         <v>11</v>
       </c>
       <c r="O4" s="14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P4" s="14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -951,22 +1037,22 @@
         <v>5</v>
       </c>
       <c r="K5" s="9">
+        <v>6</v>
+      </c>
+      <c r="L5" s="9">
+        <v>6</v>
+      </c>
+      <c r="M5" s="9">
+        <v>8</v>
+      </c>
+      <c r="N5" s="9">
+        <v>8</v>
+      </c>
+      <c r="O5" s="9">
         <v>4</v>
       </c>
-      <c r="L5" s="9">
+      <c r="P5" s="9">
         <v>5</v>
-      </c>
-      <c r="M5" s="9">
-        <v>6</v>
-      </c>
-      <c r="N5" s="9">
-        <v>6</v>
-      </c>
-      <c r="O5" s="9">
-        <v>8</v>
-      </c>
-      <c r="P5" s="9">
-        <v>8</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -1000,22 +1086,22 @@
         <v>8</v>
       </c>
       <c r="K6" s="10">
+        <v>10</v>
+      </c>
+      <c r="L6" s="10">
+        <v>10</v>
+      </c>
+      <c r="M6" s="10">
+        <v>11</v>
+      </c>
+      <c r="N6" s="10">
+        <v>11</v>
+      </c>
+      <c r="O6" s="10">
         <v>7</v>
       </c>
-      <c r="L6" s="10">
+      <c r="P6" s="10">
         <v>7</v>
-      </c>
-      <c r="M6" s="10">
-        <v>10</v>
-      </c>
-      <c r="N6" s="10">
-        <v>10</v>
-      </c>
-      <c r="O6" s="10">
-        <v>11</v>
-      </c>
-      <c r="P6" s="10">
-        <v>11</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
@@ -1036,20 +1122,20 @@
         <v>1</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
+        <v>1</v>
+      </c>
       <c r="M7" s="10">
         <v>1</v>
       </c>
       <c r="N7" s="10">
         <v>1</v>
       </c>
-      <c r="O7" s="10">
-        <v>1</v>
-      </c>
-      <c r="P7" s="10">
-        <v>1</v>
-      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1062,7 +1148,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="14">
-        <f t="shared" ref="D8:P8" si="0">D5+D6+D7</f>
+        <f t="shared" ref="D8:K8" si="0">D5+D6+D7</f>
         <v>11</v>
       </c>
       <c r="E8" s="14">
@@ -1086,32 +1172,32 @@
         <v>17</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" ref="J8:L8" si="1">J5+J6+J7</f>
+        <f t="shared" ref="J8" si="1">J5+J6+J7</f>
         <v>13</v>
       </c>
       <c r="K8" s="14">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="L8" s="14">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="M8" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="N8" s="14">
-        <f t="shared" ref="N8:O8" si="2">N5+N6+N7</f>
+      <c r="L8" s="14">
+        <f t="shared" ref="L8:N8" si="2">L5+L6+L7</f>
         <v>17</v>
       </c>
-      <c r="O8" s="14">
+      <c r="M8" s="14">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="N8" s="14">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O8" s="14">
+        <f>O5+O6+O7</f>
+        <v>11</v>
+      </c>
       <c r="P8" s="14">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>P5+P6+P7</f>
+        <v>12</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
@@ -1145,22 +1231,22 @@
         <v>33</v>
       </c>
       <c r="K9" s="9">
+        <v>41</v>
+      </c>
+      <c r="L9" s="9">
+        <v>41</v>
+      </c>
+      <c r="M9" s="9">
+        <v>43</v>
+      </c>
+      <c r="N9" s="9">
+        <v>43</v>
+      </c>
+      <c r="O9" s="9">
         <v>28</v>
       </c>
-      <c r="L9" s="9">
+      <c r="P9" s="9">
         <v>30</v>
-      </c>
-      <c r="M9" s="9">
-        <v>41</v>
-      </c>
-      <c r="N9" s="9">
-        <v>41</v>
-      </c>
-      <c r="O9" s="9">
-        <v>43</v>
-      </c>
-      <c r="P9" s="9">
-        <v>43</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
@@ -1181,20 +1267,20 @@
         <v>2</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="K10" s="10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="10">
+        <v>2</v>
+      </c>
       <c r="M10" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="10">
-        <v>2</v>
-      </c>
-      <c r="O10" s="10">
         <v>1</v>
       </c>
-      <c r="P10" s="10">
-        <v>1</v>
-      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1293,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="14">
-        <f t="shared" ref="D11:P11" si="3">D9+D10</f>
+        <f t="shared" ref="D11:K11" si="3">D9+D10</f>
         <v>25</v>
       </c>
       <c r="E11" s="14">
@@ -1231,32 +1317,32 @@
         <v>44</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" ref="J11:L11" si="4">J9+J10</f>
+        <f t="shared" ref="J11" si="4">J9+J10</f>
         <v>33</v>
       </c>
       <c r="K11" s="14">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="L11" s="14">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="M11" s="14">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="N11" s="14">
-        <f t="shared" ref="N11:O11" si="5">N9+N10</f>
+      <c r="L11" s="14">
+        <f t="shared" ref="L11:N11" si="5">L9+L10</f>
         <v>43</v>
       </c>
-      <c r="O11" s="14">
+      <c r="M11" s="14">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
+      <c r="N11" s="14">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="O11" s="14">
+        <f>O9+O10</f>
+        <v>28</v>
+      </c>
       <c r="P11" s="14">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f>P9+P10</f>
+        <v>30</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
@@ -1270,7 +1356,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" ref="D12:P12" si="6">D4+D8</f>
+        <f t="shared" ref="D12:K12" si="6">D4+D8</f>
         <v>18</v>
       </c>
       <c r="E12" s="9">
@@ -1294,32 +1380,32 @@
         <v>29</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" ref="J12:L12" si="7">J4+J8</f>
+        <f t="shared" ref="J12" si="7">J4+J8</f>
         <v>22</v>
       </c>
       <c r="K12" s="9">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="L12" s="9">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="M12" s="9">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="N12" s="9">
-        <f t="shared" ref="N12:O12" si="8">N4+N8</f>
+      <c r="L12" s="9">
+        <f t="shared" ref="L12:N12" si="8">L4+L8</f>
         <v>28</v>
       </c>
-      <c r="O12" s="9">
+      <c r="M12" s="9">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
+      <c r="N12" s="9">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="O12" s="9">
+        <f>O4+O8</f>
+        <v>19</v>
+      </c>
       <c r="P12" s="9">
-        <f t="shared" si="6"/>
-        <v>31</v>
+        <f>P4+P8</f>
+        <v>20</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
@@ -1333,7 +1419,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" ref="D13:P13" si="9">D8+D11</f>
+        <f t="shared" ref="D13:K13" si="9">D8+D11</f>
         <v>36</v>
       </c>
       <c r="E13" s="10">
@@ -1362,27 +1448,27 @@
       </c>
       <c r="K13" s="10">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="L13" s="10">
-        <f t="shared" si="9"/>
-        <v>42</v>
+        <f t="shared" ref="L13:N13" si="10">L8+L11</f>
+        <v>60</v>
       </c>
       <c r="M13" s="10">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" ref="N13:O13" si="10">N8+N11</f>
-        <v>60</v>
-      </c>
-      <c r="O13" s="10">
         <f t="shared" si="10"/>
         <v>64</v>
       </c>
+      <c r="N13" s="10">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="O13" s="10">
+        <f>O8+O11</f>
+        <v>39</v>
+      </c>
       <c r="P13" s="10">
-        <f t="shared" si="9"/>
-        <v>64</v>
+        <f>P8+P11</f>
+        <v>42</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
@@ -1396,7 +1482,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="10">
-        <f t="shared" ref="D14:P14" si="11">D4+D11</f>
+        <f t="shared" ref="D14:K14" si="11">D4+D11</f>
         <v>32</v>
       </c>
       <c r="E14" s="10">
@@ -1425,27 +1511,27 @@
       </c>
       <c r="K14" s="10">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L14" s="10">
-        <f t="shared" si="11"/>
-        <v>38</v>
+        <f t="shared" ref="L14:N14" si="12">L4+L11</f>
+        <v>54</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" si="11"/>
-        <v>54</v>
-      </c>
-      <c r="N14" s="10">
-        <f t="shared" ref="N14:O14" si="12">N4+N11</f>
-        <v>54</v>
-      </c>
-      <c r="O14" s="10">
         <f t="shared" si="12"/>
         <v>55</v>
       </c>
+      <c r="N14" s="10">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="O14" s="10">
+        <f>O4+O11</f>
+        <v>36</v>
+      </c>
       <c r="P14" s="10">
-        <f t="shared" si="11"/>
-        <v>55</v>
+        <f>P4+P11</f>
+        <v>38</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
@@ -1459,7 +1545,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="14">
-        <f t="shared" ref="D15:P15" si="13">D4+D8+D11</f>
+        <f t="shared" ref="D15:K15" si="13">D4+D8+D11</f>
         <v>43</v>
       </c>
       <c r="E15" s="14">
@@ -1483,39 +1569,39 @@
         <v>73</v>
       </c>
       <c r="J15" s="14">
-        <f t="shared" ref="J15:L15" si="14">J4+J8+J11</f>
+        <f t="shared" ref="J15" si="14">J4+J8+J11</f>
         <v>55</v>
       </c>
       <c r="K15" s="14">
-        <f t="shared" si="14"/>
-        <v>47</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" si="14"/>
-        <v>50</v>
-      </c>
-      <c r="M15" s="14">
         <f t="shared" si="13"/>
         <v>71</v>
       </c>
-      <c r="N15" s="14">
-        <f t="shared" ref="N15:O15" si="15">N4+N8+N11</f>
+      <c r="L15" s="14">
+        <f t="shared" ref="L15:N15" si="15">L4+L8+L11</f>
         <v>71</v>
       </c>
-      <c r="O15" s="14">
+      <c r="M15" s="14">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
+      <c r="N15" s="14">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="O15" s="14">
+        <f>O4+O8+O11</f>
+        <v>47</v>
+      </c>
       <c r="P15" s="14">
-        <f t="shared" si="13"/>
-        <v>75</v>
+        <f>P4+P8+P11</f>
+        <v>50</v>
       </c>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C16" s="9">
         <v>10</v>
@@ -1542,29 +1628,29 @@
         <v>16</v>
       </c>
       <c r="K16" s="9">
+        <v>20</v>
+      </c>
+      <c r="L16" s="9">
+        <v>20</v>
+      </c>
+      <c r="M16" s="9">
+        <v>21</v>
+      </c>
+      <c r="N16" s="9">
+        <v>21</v>
+      </c>
+      <c r="O16" s="9">
         <v>14</v>
       </c>
-      <c r="L16" s="9">
+      <c r="P16" s="9">
         <v>14</v>
-      </c>
-      <c r="M16" s="9">
-        <v>20</v>
-      </c>
-      <c r="N16" s="9">
-        <v>20</v>
-      </c>
-      <c r="O16" s="9">
-        <v>21</v>
-      </c>
-      <c r="P16" s="9">
-        <v>21</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17" s="10">
         <v>5</v>
@@ -1591,10 +1677,10 @@
         <v>8</v>
       </c>
       <c r="K17" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L17" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M17" s="10">
         <v>10</v>
@@ -1603,10 +1689,10 @@
         <v>10</v>
       </c>
       <c r="O17" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P17" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
@@ -1620,7 +1706,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="15">
-        <f t="shared" ref="D18:P18" si="16">D16+D17</f>
+        <f t="shared" ref="D18:K18" si="16">D16+D17</f>
         <v>20</v>
       </c>
       <c r="E18" s="15">
@@ -1644,32 +1730,32 @@
         <v>33</v>
       </c>
       <c r="J18" s="15">
-        <f t="shared" ref="J18:L18" si="17">J16+J17</f>
+        <f t="shared" ref="J18" si="17">J16+J17</f>
         <v>24</v>
       </c>
       <c r="K18" s="15">
-        <f t="shared" si="17"/>
-        <v>21</v>
-      </c>
-      <c r="L18" s="15">
-        <f t="shared" si="17"/>
-        <v>21</v>
-      </c>
-      <c r="M18" s="15">
         <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="N18" s="15">
-        <f t="shared" ref="N18:O18" si="18">N16+N17</f>
+      <c r="L18" s="15">
+        <f t="shared" ref="L18:N18" si="18">L16+L17</f>
         <v>30</v>
       </c>
-      <c r="O18" s="15">
+      <c r="M18" s="15">
         <f t="shared" si="18"/>
         <v>31</v>
       </c>
+      <c r="N18" s="15">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="O18" s="15">
+        <f>O16+O17</f>
+        <v>21</v>
+      </c>
       <c r="P18" s="15">
-        <f t="shared" si="16"/>
-        <v>31</v>
+        <f>P16+P17</f>
+        <v>21</v>
       </c>
       <c r="Q18" s="1"/>
     </row>
@@ -1683,7 +1769,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" ref="D19:P19" si="19">D15+D18</f>
+        <f t="shared" ref="D19:K19" si="19">D15+D18</f>
         <v>63</v>
       </c>
       <c r="E19" s="16">
@@ -1707,59 +1793,103 @@
         <v>106</v>
       </c>
       <c r="J19" s="16">
-        <f t="shared" ref="J19:L19" si="20">J15+J18</f>
+        <f t="shared" ref="J19" si="20">J15+J18</f>
         <v>79</v>
       </c>
       <c r="K19" s="16">
-        <f t="shared" si="20"/>
-        <v>68</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="20"/>
-        <v>71</v>
-      </c>
-      <c r="M19" s="16">
         <f t="shared" si="19"/>
         <v>101</v>
       </c>
-      <c r="N19" s="16">
-        <f t="shared" ref="N19:O19" si="21">N15+N18</f>
+      <c r="L19" s="16">
+        <f t="shared" ref="L19:N19" si="21">L15+L18</f>
         <v>101</v>
       </c>
-      <c r="O19" s="16">
+      <c r="M19" s="16">
         <f t="shared" si="21"/>
         <v>106</v>
       </c>
+      <c r="N19" s="16">
+        <f t="shared" si="21"/>
+        <v>106</v>
+      </c>
+      <c r="O19" s="16">
+        <f>O15+O18</f>
+        <v>68</v>
+      </c>
       <c r="P19" s="16">
-        <f t="shared" si="19"/>
-        <v>106</v>
+        <f>P15+P18</f>
+        <v>71</v>
       </c>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
       <c r="Q20" s="1"/>
     </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:P21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C3 E3 G3 N3:P3 I3:M3" twoDigitTextYear="1"/>
+    <ignoredError sqref="C3 E3 G3 I3:J3 K3:P3" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>